--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/BarterDataFiles/BarterFileImporter_ValidFormat_SingleBook.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/BarterDataFiles/BarterFileImporter_ValidFormat_SingleBook.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -100,9 +103,6 @@
     <t>AM 2</t>
   </si>
   <si>
-    <t>AM 3&amp;4</t>
-  </si>
-  <si>
     <t>AM 5</t>
   </si>
   <si>
@@ -164,59 +164,65 @@
   </si>
   <si>
     <t>Comment 5</t>
+  </si>
+  <si>
+    <t>AM 34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy"/>
   </numFmts>
   <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -225,7 +231,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -253,7 +259,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -267,6 +279,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -279,6 +292,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -289,6 +303,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -301,6 +316,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -313,101 +329,378 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.29"/>
-    <col customWidth="1" min="2" max="2" width="47.86"/>
-    <col customWidth="1" min="3" max="3" width="37.86"/>
-    <col customWidth="1" min="4" max="4" width="10.29"/>
-    <col customWidth="1" min="5" max="5" width="5.57"/>
-    <col customWidth="1" min="6" max="9" width="9.57"/>
-    <col customWidth="1" min="10" max="10" width="12.0"/>
-    <col customWidth="1" min="11" max="11" width="15.86"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -416,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -427,7 +720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -436,29 +729,29 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>43496.0</v>
+        <v>43496</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>43829.0</v>
+        <v>43829</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -469,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -480,7 +773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -491,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -502,7 +795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -514,7 +807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -525,7 +818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="D13" s="8" t="s">
         <v>25</v>
@@ -539,7 +832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="D14" s="11" t="s">
         <v>27</v>
@@ -548,215 +841,215 @@
         <v>28</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="14">
+        <v>30</v>
+      </c>
+      <c r="E15" s="14">
+        <v>30</v>
+      </c>
+      <c r="F15" s="14">
+        <v>60</v>
+      </c>
+      <c r="G15" s="14">
+        <v>30</v>
+      </c>
+      <c r="H15" s="14">
+        <v>30</v>
+      </c>
+      <c r="I15" s="14">
+        <v>30</v>
+      </c>
+      <c r="J15" s="14">
+        <v>15</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>60.0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>15.0</v>
-      </c>
-      <c r="K15" s="13" t="s">
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>4</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3</v>
+      </c>
+      <c r="G16" s="17">
+        <v>5</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <v>4</v>
+      </c>
+      <c r="J16" s="19">
+        <v>3</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="F16" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="G16" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="H16" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="I16" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="J16" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="K16" s="19" t="s">
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="E17" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="H17" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="I17" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="J17" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="K17" s="19" t="s">
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="17">
+        <v>3</v>
+      </c>
+      <c r="E18" s="17">
+        <v>2</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2</v>
+      </c>
+      <c r="H18" s="17">
+        <v>3</v>
+      </c>
+      <c r="I18" s="17">
+        <v>2</v>
+      </c>
+      <c r="J18" s="19">
+        <v>1</v>
+      </c>
+      <c r="K18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="E18" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="F18" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="H18" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="I18" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="J18" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="K18" s="19" t="s">
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="20">
+        <v>2</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1</v>
+      </c>
+      <c r="F19" s="20">
+        <v>2</v>
+      </c>
+      <c r="G19" s="21">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20">
+        <v>2</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>2</v>
+      </c>
+      <c r="K19" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="E19" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G19" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="H19" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="I19" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="J19" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="K19" s="19" t="s">
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17">
+        <v>4</v>
+      </c>
+      <c r="F20" s="17">
+        <v>3</v>
+      </c>
+      <c r="G20" s="20">
+        <v>5</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1</v>
+      </c>
+      <c r="I20" s="17">
+        <v>4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>3</v>
+      </c>
+      <c r="K20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="F20" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="G20" s="20">
-        <v>5.0</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="J20" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
       <c r="D21" s="17"/>
@@ -766,7 +1059,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
       <c r="D22" s="17"/>
@@ -776,7 +1069,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
       <c r="D23" s="17"/>
@@ -786,7 +1079,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
       <c r="D24" s="17"/>
@@ -796,7 +1089,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
       <c r="D25" s="17"/>
@@ -806,7 +1099,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
       <c r="D26" s="17"/>
@@ -816,7 +1109,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
       <c r="D27" s="17"/>
@@ -826,7 +1119,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="17"/>
@@ -836,7 +1129,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
@@ -846,7 +1139,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
       <c r="D30" s="17"/>
@@ -856,7 +1149,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="17"/>
@@ -866,7 +1159,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
       <c r="D32" s="17"/>
@@ -876,7 +1169,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="2:9" ht="15.75" customHeight="1">
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
       <c r="D33" s="17"/>
@@ -886,7 +1179,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="2:9" ht="15.75" customHeight="1">
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
       <c r="D34" s="17"/>
@@ -896,7 +1189,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="2:9" ht="15.75" customHeight="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
       <c r="D35" s="17"/>
@@ -906,7 +1199,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="2:9" ht="15.75" customHeight="1">
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
       <c r="D36" s="17"/>
@@ -916,7 +1209,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="2:9" ht="15.75" customHeight="1">
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
       <c r="D37" s="17"/>
@@ -926,7 +1219,7 @@
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="2:9" ht="15.75" customHeight="1">
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
       <c r="D38" s="17"/>
@@ -936,7 +1229,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="2:9" ht="15.75" customHeight="1">
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
       <c r="D39" s="17"/>
@@ -946,7 +1239,7 @@
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="2:9" ht="15.75" customHeight="1">
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
       <c r="D40" s="17"/>
@@ -956,7 +1249,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="2:9" ht="15.75" customHeight="1">
       <c r="B41" s="22"/>
       <c r="C41" s="23"/>
       <c r="D41" s="17"/>
@@ -966,7 +1259,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="2:9" ht="15.75" customHeight="1">
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
       <c r="D42" s="17"/>
@@ -976,7 +1269,7 @@
       <c r="H42" s="18"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="2:9" ht="15.75" customHeight="1">
       <c r="B43" s="22"/>
       <c r="C43" s="23"/>
       <c r="D43" s="17"/>
@@ -986,7 +1279,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="2:9" ht="15.75" customHeight="1">
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="17"/>
@@ -996,7 +1289,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="2:9" ht="15.75" customHeight="1">
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="17"/>
@@ -1006,7 +1299,7 @@
       <c r="H45" s="18"/>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="2:9" ht="15.75" customHeight="1">
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="17"/>
@@ -1016,7 +1309,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="2:9" ht="15.75" customHeight="1">
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
       <c r="D47" s="18"/>
@@ -1026,7 +1319,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="2:9" ht="15.75" customHeight="1">
       <c r="B48" s="22"/>
       <c r="C48" s="23"/>
       <c r="D48" s="17"/>
@@ -1036,7 +1329,7 @@
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="2:9" ht="15.75" customHeight="1">
       <c r="B49" s="22"/>
       <c r="C49" s="23"/>
       <c r="D49" s="17"/>
@@ -1046,7 +1339,7 @@
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="22"/>
       <c r="C50" s="23"/>
       <c r="D50" s="17"/>
@@ -1056,7 +1349,7 @@
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="22"/>
       <c r="C51" s="23"/>
       <c r="D51" s="17"/>
@@ -1066,7 +1359,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
       <c r="B52" s="22"/>
       <c r="C52" s="23"/>
       <c r="D52" s="17"/>
@@ -1076,7 +1369,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
       <c r="D53" s="17"/>
@@ -1086,7 +1379,7 @@
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="2:9" ht="15.75" customHeight="1">
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
       <c r="D54" s="17"/>
@@ -1096,7 +1389,7 @@
       <c r="H54" s="18"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="2:9" ht="15.75" customHeight="1">
       <c r="B55" s="22"/>
       <c r="C55" s="23"/>
       <c r="D55" s="17"/>
@@ -1106,7 +1399,7 @@
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="2:9" ht="15.75" customHeight="1">
       <c r="B56" s="22"/>
       <c r="C56" s="23"/>
       <c r="D56" s="17"/>
@@ -1116,7 +1409,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="2:9" ht="15.75" customHeight="1">
       <c r="B57" s="22"/>
       <c r="C57" s="23"/>
       <c r="D57" s="17"/>
@@ -1126,7 +1419,7 @@
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="2:9" ht="15.75" customHeight="1">
       <c r="B58" s="22"/>
       <c r="C58" s="23"/>
       <c r="D58" s="17"/>
@@ -1136,7 +1429,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="2:9" ht="15.75" customHeight="1">
       <c r="B59" s="22"/>
       <c r="C59" s="23"/>
       <c r="D59" s="17"/>
@@ -1146,7 +1439,7 @@
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
       <c r="B60" s="22"/>
       <c r="C60" s="23"/>
       <c r="D60" s="17"/>
@@ -1156,7 +1449,7 @@
       <c r="H60" s="18"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="2:9" ht="15.75" customHeight="1">
       <c r="B61" s="22"/>
       <c r="C61" s="23"/>
       <c r="D61" s="17"/>
@@ -1166,7 +1459,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="2:9" ht="15.75" customHeight="1">
       <c r="B62" s="22"/>
       <c r="C62" s="23"/>
       <c r="D62" s="17"/>
@@ -1176,7 +1469,7 @@
       <c r="H62" s="18"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="2:9" ht="15.75" customHeight="1">
       <c r="B63" s="22"/>
       <c r="C63" s="23"/>
       <c r="D63" s="17"/>
@@ -1186,7 +1479,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="2:9" ht="15.75" customHeight="1">
       <c r="B64" s="22"/>
       <c r="C64" s="23"/>
       <c r="D64" s="17"/>
@@ -1196,7 +1489,7 @@
       <c r="H64" s="18"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="2:9" ht="15.75" customHeight="1">
       <c r="B65" s="22"/>
       <c r="C65" s="23"/>
       <c r="D65" s="17"/>
@@ -1206,7 +1499,7 @@
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="2:9" ht="15.75" customHeight="1">
       <c r="B66" s="22"/>
       <c r="C66" s="23"/>
       <c r="D66" s="17"/>
@@ -1216,7 +1509,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="2:9" ht="15.75" customHeight="1">
       <c r="B67" s="22"/>
       <c r="C67" s="23"/>
       <c r="D67" s="17"/>
@@ -1226,7 +1519,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="2:9" ht="15.75" customHeight="1">
       <c r="B68" s="22"/>
       <c r="C68" s="23"/>
       <c r="D68" s="17"/>
@@ -1236,7 +1529,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="2:9" ht="15.75" customHeight="1">
       <c r="B69" s="22"/>
       <c r="C69" s="23"/>
       <c r="D69" s="17"/>
@@ -1246,7 +1539,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="2:9" ht="15.75" customHeight="1">
       <c r="B70" s="22"/>
       <c r="C70" s="23"/>
       <c r="D70" s="17"/>
@@ -1256,7 +1549,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="2:9" ht="15.75" customHeight="1">
       <c r="B71" s="22"/>
       <c r="C71" s="23"/>
       <c r="D71" s="17"/>
@@ -1266,7 +1559,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="2:9" ht="15.75" customHeight="1">
       <c r="B72" s="22"/>
       <c r="C72" s="23"/>
       <c r="D72" s="17"/>
@@ -1276,7 +1569,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="2:9" ht="15.75" customHeight="1">
       <c r="B73" s="22"/>
       <c r="C73" s="23"/>
       <c r="D73" s="17"/>
@@ -1286,7 +1579,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="2:9" ht="15.75" customHeight="1">
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
       <c r="D74" s="17"/>
@@ -1296,7 +1589,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="2:9" ht="15.75" customHeight="1">
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
       <c r="D75" s="17"/>
@@ -1306,7 +1599,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="2:9" ht="15.75" customHeight="1">
       <c r="B76" s="22"/>
       <c r="C76" s="23"/>
       <c r="D76" s="18"/>
@@ -1316,7 +1609,7 @@
       <c r="H76" s="18"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="2:9" ht="15.75" customHeight="1">
       <c r="B77" s="22"/>
       <c r="C77" s="23"/>
       <c r="D77" s="18"/>
@@ -1326,7 +1619,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="2:9" ht="15.75" customHeight="1">
       <c r="B78" s="22"/>
       <c r="C78" s="23"/>
       <c r="D78" s="17"/>
@@ -1336,7 +1629,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="2:9" ht="15.75" customHeight="1">
       <c r="B79" s="22"/>
       <c r="C79" s="23"/>
       <c r="D79" s="17"/>
@@ -1346,7 +1639,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="18"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="2:9" ht="15.75" customHeight="1">
       <c r="B80" s="22"/>
       <c r="C80" s="23"/>
       <c r="D80" s="17"/>
@@ -1356,7 +1649,7 @@
       <c r="H80" s="18"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="2:9" ht="15.75" customHeight="1">
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
       <c r="D81" s="17"/>
@@ -1366,7 +1659,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="2:9" ht="15.75" customHeight="1">
       <c r="B82" s="22"/>
       <c r="C82" s="23"/>
       <c r="D82" s="17"/>
@@ -1376,7 +1669,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="2:9" ht="15.75" customHeight="1">
       <c r="B83" s="22"/>
       <c r="C83" s="23"/>
       <c r="D83" s="18"/>
@@ -1386,7 +1679,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="2:9" ht="15.75" customHeight="1">
       <c r="B84" s="22"/>
       <c r="C84" s="23"/>
       <c r="D84" s="17"/>
@@ -1396,7 +1689,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="2:9" ht="15.75" customHeight="1">
       <c r="B85" s="22"/>
       <c r="C85" s="23"/>
       <c r="D85" s="17"/>
@@ -1406,7 +1699,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="2:9" ht="15.75" customHeight="1">
       <c r="B86" s="22"/>
       <c r="C86" s="23"/>
       <c r="D86" s="17"/>
@@ -1416,7 +1709,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="2:9" ht="15.75" customHeight="1">
       <c r="B87" s="22"/>
       <c r="C87" s="23"/>
       <c r="D87" s="17"/>
@@ -1426,7 +1719,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="2:9" ht="15.75" customHeight="1">
       <c r="B88" s="22"/>
       <c r="C88" s="23"/>
       <c r="D88" s="17"/>
@@ -1436,7 +1729,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="2:9" ht="15.75" customHeight="1">
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
       <c r="D89" s="17"/>
@@ -1446,7 +1739,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="2:9" ht="15.75" customHeight="1">
       <c r="B90" s="22"/>
       <c r="C90" s="23"/>
       <c r="D90" s="17"/>
@@ -1456,7 +1749,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="2:9" ht="15.75" customHeight="1">
       <c r="B91" s="22"/>
       <c r="C91" s="23"/>
       <c r="D91" s="17"/>
@@ -1466,7 +1759,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="18"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="2:9" ht="15.75" customHeight="1">
       <c r="B92" s="22"/>
       <c r="C92" s="23"/>
       <c r="D92" s="17"/>
@@ -1476,7 +1769,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="2:9" ht="15.75" customHeight="1">
       <c r="B93" s="22"/>
       <c r="C93" s="23"/>
       <c r="D93" s="17"/>
@@ -1486,7 +1779,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="2:9" ht="15.75" customHeight="1">
       <c r="B94" s="22"/>
       <c r="C94" s="23"/>
       <c r="D94" s="17"/>
@@ -1496,7 +1789,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="2:9" ht="15.75" customHeight="1">
       <c r="B95" s="22"/>
       <c r="C95" s="23"/>
       <c r="D95" s="17"/>
@@ -1506,7 +1799,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="2:9" ht="15.75" customHeight="1">
       <c r="B96" s="22"/>
       <c r="C96" s="23"/>
       <c r="D96" s="17"/>
@@ -1516,7 +1809,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="18"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="2:9" ht="15.75" customHeight="1">
       <c r="B97" s="22"/>
       <c r="C97" s="23"/>
       <c r="D97" s="17"/>
@@ -1526,7 +1819,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="2:9" ht="15.75" customHeight="1">
       <c r="B98" s="22"/>
       <c r="C98" s="23"/>
       <c r="D98" s="17"/>
@@ -1536,7 +1829,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="2:9" ht="15.75" customHeight="1">
       <c r="B99" s="22"/>
       <c r="C99" s="23"/>
       <c r="D99" s="17"/>
@@ -1546,7 +1839,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="2:9" ht="15.75" customHeight="1">
       <c r="B100" s="22"/>
       <c r="C100" s="23"/>
       <c r="D100" s="17"/>
@@ -1556,7 +1849,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="2:9" ht="15.75" customHeight="1">
       <c r="B101" s="22"/>
       <c r="C101" s="23"/>
       <c r="D101" s="18"/>
@@ -1566,7 +1859,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="2:9" ht="15.75" customHeight="1">
       <c r="B102" s="22"/>
       <c r="C102" s="23"/>
       <c r="D102" s="17"/>
@@ -1576,7 +1869,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="2:9" ht="15.75" customHeight="1">
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
       <c r="D103" s="17"/>
@@ -1586,7 +1879,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="2:9" ht="15.75" customHeight="1">
       <c r="B104" s="22"/>
       <c r="C104" s="23"/>
       <c r="D104" s="17"/>
@@ -1596,7 +1889,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="2:9" ht="15.75" customHeight="1">
       <c r="B105" s="22"/>
       <c r="C105" s="23"/>
       <c r="D105" s="17"/>
@@ -1606,7 +1899,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="2:9" ht="15.75" customHeight="1">
       <c r="B106" s="22"/>
       <c r="C106" s="23"/>
       <c r="D106" s="17"/>
@@ -1616,7 +1909,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="2:9" ht="15.75" customHeight="1">
       <c r="B107" s="22"/>
       <c r="C107" s="23"/>
       <c r="D107" s="17"/>
@@ -1626,7 +1919,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="2:9" ht="15.75" customHeight="1">
       <c r="B108" s="22"/>
       <c r="C108" s="23"/>
       <c r="D108" s="17"/>
@@ -1636,7 +1929,7 @@
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="2:9" ht="15.75" customHeight="1">
       <c r="B109" s="22"/>
       <c r="C109" s="23"/>
       <c r="D109" s="17"/>
@@ -1646,7 +1939,7 @@
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="2:9" ht="15.75" customHeight="1">
       <c r="B110" s="22"/>
       <c r="C110" s="23"/>
       <c r="D110" s="17"/>
@@ -1656,7 +1949,7 @@
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="2:9" ht="15.75" customHeight="1">
       <c r="B111" s="22"/>
       <c r="C111" s="23"/>
       <c r="D111" s="17"/>
@@ -1666,7 +1959,7 @@
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="2:9" ht="15.75" customHeight="1">
       <c r="B112" s="22"/>
       <c r="C112" s="23"/>
       <c r="D112" s="17"/>
@@ -1676,7 +1969,7 @@
       <c r="H112" s="26"/>
       <c r="I112" s="26"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="2:9" ht="15.75" customHeight="1">
       <c r="B113" s="22"/>
       <c r="C113" s="23"/>
       <c r="D113" s="27"/>
@@ -1686,7 +1979,7 @@
       <c r="H113" s="17"/>
       <c r="I113" s="27"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="2:9" ht="15.75" customHeight="1">
       <c r="B114" s="22"/>
       <c r="C114" s="23"/>
       <c r="D114" s="27"/>
@@ -1696,7 +1989,7 @@
       <c r="H114" s="17"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="2:9" ht="15.75" customHeight="1">
       <c r="B115" s="22"/>
       <c r="C115" s="23"/>
       <c r="D115" s="27"/>
@@ -1706,7 +1999,7 @@
       <c r="H115" s="18"/>
       <c r="I115" s="27"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="2:9" ht="15.75" customHeight="1">
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
       <c r="D116" s="27"/>
@@ -1716,7 +2009,7 @@
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="2:9" ht="15.75" customHeight="1">
       <c r="B117" s="22"/>
       <c r="C117" s="23"/>
       <c r="D117" s="17"/>
@@ -1726,7 +2019,7 @@
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="2:9" ht="15.75" customHeight="1">
       <c r="B118" s="22"/>
       <c r="C118" s="23"/>
       <c r="D118" s="17"/>
@@ -1736,7 +2029,7 @@
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="2:9" ht="15.75" customHeight="1">
       <c r="B119" s="22"/>
       <c r="C119" s="23"/>
       <c r="D119" s="17"/>
@@ -1746,7 +2039,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="18"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="2:9" ht="15.75" customHeight="1">
       <c r="B120" s="22"/>
       <c r="C120" s="23"/>
       <c r="D120" s="17"/>
@@ -1756,7 +2049,7 @@
       <c r="H120" s="17"/>
       <c r="I120" s="18"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="2:9" ht="15.75" customHeight="1">
       <c r="B121" s="22"/>
       <c r="C121" s="23"/>
       <c r="D121" s="17"/>
@@ -1766,7 +2059,7 @@
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="2:9" ht="15.75" customHeight="1">
       <c r="B122" s="22"/>
       <c r="C122" s="23"/>
       <c r="D122" s="17"/>
@@ -1776,7 +2069,7 @@
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="2:9" ht="15.75" customHeight="1">
       <c r="B123" s="22"/>
       <c r="C123" s="23"/>
       <c r="D123" s="17"/>
@@ -1786,7 +2079,7 @@
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="2:9" ht="15.75" customHeight="1">
       <c r="B124" s="22"/>
       <c r="C124" s="23"/>
       <c r="D124" s="17"/>
@@ -1796,7 +2089,7 @@
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="2:9" ht="15.75" customHeight="1">
       <c r="B125" s="22"/>
       <c r="C125" s="23"/>
       <c r="D125" s="17"/>
@@ -1806,7 +2099,7 @@
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="2:9" ht="15.75" customHeight="1">
       <c r="B126" s="22"/>
       <c r="C126" s="22"/>
       <c r="D126" s="17"/>
@@ -1816,7 +2109,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="2:9" ht="15.75" customHeight="1">
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
       <c r="D127" s="18"/>
@@ -1826,7 +2119,7 @@
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="2:9" ht="15.75" customHeight="1">
       <c r="B128" s="22"/>
       <c r="C128" s="22"/>
       <c r="D128" s="17"/>
@@ -1836,7 +2129,7 @@
       <c r="H128" s="17"/>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="2:9" ht="15.75" customHeight="1">
       <c r="B129" s="22"/>
       <c r="C129" s="22"/>
       <c r="D129" s="17"/>
@@ -1846,7 +2139,7 @@
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="2:9" ht="15.75" customHeight="1">
       <c r="B130" s="22"/>
       <c r="C130" s="23"/>
       <c r="D130" s="17"/>
@@ -1856,7 +2149,7 @@
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="2:9" ht="15.75" customHeight="1">
       <c r="B131" s="22"/>
       <c r="C131" s="23"/>
       <c r="D131" s="17"/>
@@ -1866,7 +2159,7 @@
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="2:9" ht="15.75" customHeight="1">
       <c r="B132" s="22"/>
       <c r="C132" s="23"/>
       <c r="D132" s="17"/>
@@ -1876,7 +2169,7 @@
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="2:9" ht="15.75" customHeight="1">
       <c r="B133" s="22"/>
       <c r="C133" s="23"/>
       <c r="D133" s="17"/>
@@ -1886,7 +2179,7 @@
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="2:9" ht="15.75" customHeight="1">
       <c r="B134" s="22"/>
       <c r="C134" s="23"/>
       <c r="D134" s="17"/>
@@ -1896,7 +2189,7 @@
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="2:9" ht="15.75" customHeight="1">
       <c r="B135" s="22"/>
       <c r="C135" s="23"/>
       <c r="D135" s="17"/>
@@ -1906,7 +2199,7 @@
       <c r="H135" s="18"/>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="2:9" ht="15.75" customHeight="1">
       <c r="B136" s="22"/>
       <c r="C136" s="23"/>
       <c r="D136" s="17"/>
@@ -1916,7 +2209,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="18"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="2:9" ht="15.75" customHeight="1">
       <c r="B137" s="22"/>
       <c r="C137" s="23"/>
       <c r="D137" s="17"/>
@@ -1926,7 +2219,7 @@
       <c r="H137" s="17"/>
       <c r="I137" s="17"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="2:9" ht="15.75" customHeight="1">
       <c r="B138" s="22"/>
       <c r="C138" s="23"/>
       <c r="D138" s="17"/>
@@ -1936,7 +2229,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="2:9" ht="15.75" customHeight="1">
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
       <c r="D139" s="17"/>
@@ -1946,7 +2239,7 @@
       <c r="H139" s="17"/>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="2:9" ht="15.75" customHeight="1">
       <c r="B140" s="22"/>
       <c r="C140" s="22"/>
       <c r="D140" s="17"/>
@@ -1956,7 +2249,7 @@
       <c r="H140" s="17"/>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="2:9" ht="15.75" customHeight="1">
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
       <c r="D141" s="17"/>
@@ -1966,7 +2259,7 @@
       <c r="H141" s="17"/>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="2:9" ht="15.75" customHeight="1">
       <c r="B142" s="22"/>
       <c r="C142" s="23"/>
       <c r="D142" s="17"/>
@@ -1976,7 +2269,7 @@
       <c r="H142" s="17"/>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="2:9" ht="15.75" customHeight="1">
       <c r="B143" s="22"/>
       <c r="C143" s="23"/>
       <c r="D143" s="17"/>
@@ -1986,7 +2279,7 @@
       <c r="H143" s="17"/>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="2:9" ht="15.75" customHeight="1">
       <c r="B144" s="22"/>
       <c r="C144" s="23"/>
       <c r="D144" s="17"/>
@@ -1996,7 +2289,7 @@
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="2:9" ht="15.75" customHeight="1">
       <c r="B145" s="22"/>
       <c r="C145" s="22"/>
       <c r="D145" s="17"/>
@@ -2006,7 +2299,7 @@
       <c r="H145" s="24"/>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="2:9" ht="15.75" customHeight="1">
       <c r="B146" s="22"/>
       <c r="C146" s="22"/>
       <c r="D146" s="17"/>
@@ -2016,7 +2309,7 @@
       <c r="H146" s="17"/>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="2:9" ht="15.75" customHeight="1">
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
       <c r="D147" s="17"/>
@@ -2026,7 +2319,7 @@
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="2:9" ht="15.75" customHeight="1">
       <c r="B148" s="22"/>
       <c r="C148" s="22"/>
       <c r="D148" s="17"/>
@@ -2036,7 +2329,7 @@
       <c r="H148" s="17"/>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="2:9" ht="15.75" customHeight="1">
       <c r="B149" s="22"/>
       <c r="C149" s="22"/>
       <c r="D149" s="17"/>
@@ -2046,7 +2339,7 @@
       <c r="H149" s="17"/>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="2:9" ht="15.75" customHeight="1">
       <c r="B150" s="22"/>
       <c r="C150" s="23"/>
       <c r="D150" s="17"/>
@@ -2056,7 +2349,7 @@
       <c r="H150" s="17"/>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="2:9" ht="15.75" customHeight="1">
       <c r="B151" s="22"/>
       <c r="C151" s="23"/>
       <c r="D151" s="17"/>
@@ -2066,7 +2359,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="2:9" ht="15.75" customHeight="1">
       <c r="B152" s="22"/>
       <c r="C152" s="23"/>
       <c r="D152" s="17"/>
@@ -2076,7 +2369,7 @@
       <c r="H152" s="17"/>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="2:9" ht="15.75" customHeight="1">
       <c r="B153" s="22"/>
       <c r="C153" s="23"/>
       <c r="D153" s="17"/>
@@ -2086,7 +2379,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="2:9" ht="15.75" customHeight="1">
       <c r="B154" s="22"/>
       <c r="C154" s="23"/>
       <c r="D154" s="17"/>
@@ -2096,7 +2389,7 @@
       <c r="H154" s="17"/>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="2:9" ht="15.75" customHeight="1">
       <c r="B155" s="22"/>
       <c r="C155" s="23"/>
       <c r="D155" s="17"/>
@@ -2106,7 +2399,7 @@
       <c r="H155" s="17"/>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="2:9" ht="15.75" customHeight="1">
       <c r="B156" s="22"/>
       <c r="C156" s="23"/>
       <c r="D156" s="17"/>
@@ -2116,7 +2409,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="2:9" ht="15.75" customHeight="1">
       <c r="B157" s="22"/>
       <c r="C157" s="23"/>
       <c r="D157" s="17"/>
@@ -2126,7 +2419,7 @@
       <c r="H157" s="17"/>
       <c r="I157" s="17"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="2:9" ht="15.75" customHeight="1">
       <c r="B158" s="22"/>
       <c r="C158" s="23"/>
       <c r="D158" s="17"/>
@@ -2136,7 +2429,7 @@
       <c r="H158" s="17"/>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="2:9" ht="15.75" customHeight="1">
       <c r="B159" s="23"/>
       <c r="C159" s="22"/>
       <c r="D159" s="17"/>
@@ -2146,7 +2439,7 @@
       <c r="H159" s="17"/>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="2:9" ht="15.75" customHeight="1">
       <c r="B160" s="23"/>
       <c r="C160" s="22"/>
       <c r="D160" s="17"/>
@@ -2156,7 +2449,7 @@
       <c r="H160" s="17"/>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="2:9" ht="15.75" customHeight="1">
       <c r="B161" s="23"/>
       <c r="C161" s="22"/>
       <c r="D161" s="17"/>
@@ -2166,7 +2459,7 @@
       <c r="H161" s="17"/>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="2:9" ht="15.75" customHeight="1">
       <c r="B162" s="23"/>
       <c r="C162" s="22"/>
       <c r="D162" s="17"/>
@@ -2176,7 +2469,7 @@
       <c r="H162" s="17"/>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="2:9" ht="15.75" customHeight="1">
       <c r="B163" s="22"/>
       <c r="C163" s="22"/>
       <c r="D163" s="17"/>
@@ -2186,7 +2479,7 @@
       <c r="H163" s="17"/>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="2:9" ht="15.75" customHeight="1">
       <c r="B164" s="22"/>
       <c r="C164" s="22"/>
       <c r="D164" s="17"/>
@@ -2196,7 +2489,7 @@
       <c r="H164" s="17"/>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="2:9" ht="15.75" customHeight="1">
       <c r="B165" s="22"/>
       <c r="C165" s="22"/>
       <c r="D165" s="17"/>
@@ -2206,7 +2499,7 @@
       <c r="H165" s="17"/>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="2:9" ht="15.75" customHeight="1">
       <c r="B166" s="23"/>
       <c r="C166" s="22"/>
       <c r="D166" s="17"/>
@@ -2216,7 +2509,7 @@
       <c r="H166" s="17"/>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="2:9" ht="15.75" customHeight="1">
       <c r="B167" s="23"/>
       <c r="C167" s="22"/>
       <c r="D167" s="17"/>
@@ -2226,7 +2519,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="2:9" ht="15.75" customHeight="1">
       <c r="B168" s="22"/>
       <c r="C168" s="23"/>
       <c r="D168" s="17"/>
@@ -2236,7 +2529,7 @@
       <c r="H168" s="17"/>
       <c r="I168" s="17"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="2:9" ht="15.75" customHeight="1">
       <c r="B169" s="22"/>
       <c r="C169" s="23"/>
       <c r="D169" s="17"/>
@@ -2246,7 +2539,7 @@
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="2:9" ht="15.75" customHeight="1">
       <c r="B170" s="22"/>
       <c r="C170" s="23"/>
       <c r="D170" s="17"/>
@@ -2256,7 +2549,7 @@
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="2:9" ht="15.75" customHeight="1">
       <c r="B171" s="22"/>
       <c r="C171" s="23"/>
       <c r="D171" s="17"/>
@@ -2266,7 +2559,7 @@
       <c r="H171" s="17"/>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="2:9" ht="15.75" customHeight="1">
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
       <c r="D172" s="17"/>
@@ -2276,7 +2569,7 @@
       <c r="H172" s="17"/>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="2:9" ht="15.75" customHeight="1">
       <c r="B173" s="22"/>
       <c r="C173" s="23"/>
       <c r="D173" s="17"/>
@@ -2286,7 +2579,7 @@
       <c r="H173" s="17"/>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="2:9" ht="15.75" customHeight="1">
       <c r="B174" s="22"/>
       <c r="C174" s="22"/>
       <c r="D174" s="20"/>
@@ -2296,7 +2589,7 @@
       <c r="H174" s="20"/>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="2:9" ht="15.75" customHeight="1">
       <c r="B175" s="22"/>
       <c r="C175" s="22"/>
       <c r="D175" s="20"/>
@@ -2306,7 +2599,7 @@
       <c r="H175" s="20"/>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="2:9" ht="15.75" customHeight="1">
       <c r="B176" s="22"/>
       <c r="C176" s="22"/>
       <c r="D176" s="17"/>
@@ -2316,7 +2609,7 @@
       <c r="H176" s="17"/>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="2:9" ht="15.75" customHeight="1">
       <c r="B177" s="22"/>
       <c r="C177" s="22"/>
       <c r="D177" s="17"/>
@@ -2326,7 +2619,7 @@
       <c r="H177" s="17"/>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="2:9" ht="15.75" customHeight="1">
       <c r="B178" s="22"/>
       <c r="C178" s="22"/>
       <c r="D178" s="17"/>
@@ -2336,7 +2629,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="2:9" ht="15.75" customHeight="1">
       <c r="B179" s="22"/>
       <c r="C179" s="23"/>
       <c r="D179" s="17"/>
@@ -2346,7 +2639,7 @@
       <c r="H179" s="17"/>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="2:9" ht="15.75" customHeight="1">
       <c r="B180" s="22"/>
       <c r="C180" s="22"/>
       <c r="D180" s="17"/>
@@ -2356,7 +2649,7 @@
       <c r="H180" s="17"/>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="2:9" ht="15.75" customHeight="1">
       <c r="B181" s="22"/>
       <c r="C181" s="22"/>
       <c r="D181" s="17"/>
@@ -2366,7 +2659,7 @@
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="2:9" ht="15.75" customHeight="1">
       <c r="B182" s="22"/>
       <c r="C182" s="22"/>
       <c r="D182" s="17"/>
@@ -2376,7 +2669,7 @@
       <c r="H182" s="17"/>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="2:9" ht="15.75" customHeight="1">
       <c r="B183" s="22"/>
       <c r="C183" s="22"/>
       <c r="D183" s="25"/>
@@ -2386,7 +2679,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="2:9" ht="15.75" customHeight="1">
       <c r="B184" s="22"/>
       <c r="C184" s="23"/>
       <c r="D184" s="17"/>
@@ -2396,7 +2689,7 @@
       <c r="H184" s="17"/>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="2:9" ht="15.75" customHeight="1">
       <c r="B185" s="22"/>
       <c r="C185" s="23"/>
       <c r="D185" s="17"/>
@@ -2406,7 +2699,7 @@
       <c r="H185" s="17"/>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="2:9" ht="15.75" customHeight="1">
       <c r="B186" s="22"/>
       <c r="C186" s="22"/>
       <c r="D186" s="17"/>
@@ -2416,7 +2709,7 @@
       <c r="H186" s="17"/>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="2:9" ht="15.75" customHeight="1">
       <c r="B187" s="22"/>
       <c r="C187" s="22"/>
       <c r="D187" s="17"/>
@@ -2426,54 +2719,54 @@
       <c r="H187" s="17"/>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="2:9" ht="15.75" customHeight="1">
       <c r="B188" s="22"/>
       <c r="C188" s="23"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="2:9" ht="15.75" customHeight="1">
       <c r="B189" s="22"/>
       <c r="C189" s="23"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="2:9" ht="15.75" customHeight="1">
       <c r="B190" s="22"/>
       <c r="C190" s="23"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="2:9" ht="15.75" customHeight="1">
       <c r="B191" s="22"/>
       <c r="C191" s="23"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="2:9" ht="15.75" customHeight="1">
       <c r="B192" s="22"/>
       <c r="C192" s="23"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="2:3" ht="15.75" customHeight="1">
       <c r="B193" s="22"/>
       <c r="C193" s="22"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="2:3" ht="15.75" customHeight="1">
       <c r="B194" s="22"/>
       <c r="C194" s="23"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="2:3" ht="15.75" customHeight="1">
       <c r="B195" s="22"/>
       <c r="C195" s="23"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="2:3" ht="15.75" customHeight="1">
       <c r="B196" s="22"/>
       <c r="C196" s="23"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="197" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="198" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="199" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="200" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="201" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="202" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="203" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="204" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="205" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="206" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="207" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="208" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="209" ht="15.75" customHeight="1"/>
     <row r="210" ht="15.75" customHeight="1"/>
     <row r="211" ht="15.75" customHeight="1"/>
@@ -3267,9 +3560,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>